--- a/biology/Histoire de la zoologie et de la botanique/Carl_Franz_Anton_Ritter_von_Schreibers/Carl_Franz_Anton_Ritter_von_Schreibers.xlsx
+++ b/biology/Histoire de la zoologie et de la botanique/Carl_Franz_Anton_Ritter_von_Schreibers/Carl_Franz_Anton_Ritter_von_Schreibers.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Le chevalier Carl Franz Anton von Schreibers, né le 15 août 1775 à Presbourg) et mort le 21 mai 1852, est un naturaliste autrichien. Son nom a été donné à un minéral des météorites de fer (la schreibersite), ainsi qu'à une chauve-souris d'Europe et d'Afrique (le minioptère de Schreibers).
 </t>
@@ -511,7 +523,9 @@
           <t>Biographie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Fils d’un archiviste de l’armée, Schreibers étudie à Vienne en Autriche la médecine mais aussi la botanique, la minéralogie et la zoologie. Il est de 1795 à 1798 l'assistant du phrénologue Gall. Il obtient son titre de docteur en 1798. Il voyage à travers l’Europe, il visite les muséums et rencontre de nombreux scientifiques.
 De 1802 à 1807, il est l’assistant du professeur Jordan à l’université de Vienne. En 1806, il succède à Andreas Xaverius Stütz à la tête du cabinet de curiosités de l’empereur François II. Il refuse un poste à l’université pour de devenir le directeur du nouveau muséum de Vienne.
